--- a/file.xlsx
+++ b/file.xlsx
@@ -7,6 +7,42 @@
     <sheet name="work2" sheetId="2" r:id="rId2"/>
     <sheet name="work3" sheetId="3" r:id="rId3"/>
     <sheet name="work4" sheetId="4" r:id="rId4"/>
+    <sheet name="work1" sheetId="5" r:id="rId5"/>
+    <sheet name="work2" sheetId="6" r:id="rId6"/>
+    <sheet name="work3" sheetId="7" r:id="rId7"/>
+    <sheet name="work4" sheetId="8" r:id="rId8"/>
+    <sheet name="work1" sheetId="9" r:id="rId9"/>
+    <sheet name="work2" sheetId="10" r:id="rId10"/>
+    <sheet name="work3" sheetId="11" r:id="rId11"/>
+    <sheet name="work4" sheetId="12" r:id="rId12"/>
+    <sheet name="work1" sheetId="13" r:id="rId13"/>
+    <sheet name="work2" sheetId="14" r:id="rId14"/>
+    <sheet name="work3" sheetId="15" r:id="rId15"/>
+    <sheet name="work4" sheetId="16" r:id="rId16"/>
+    <sheet name="work1" sheetId="17" r:id="rId17"/>
+    <sheet name="work2" sheetId="18" r:id="rId18"/>
+    <sheet name="work3" sheetId="19" r:id="rId19"/>
+    <sheet name="work4" sheetId="20" r:id="rId20"/>
+    <sheet name="work1" sheetId="21" r:id="rId21"/>
+    <sheet name="work2" sheetId="22" r:id="rId22"/>
+    <sheet name="work3" sheetId="23" r:id="rId23"/>
+    <sheet name="work4" sheetId="24" r:id="rId24"/>
+    <sheet name="work1" sheetId="25" r:id="rId25"/>
+    <sheet name="work2" sheetId="26" r:id="rId26"/>
+    <sheet name="work3" sheetId="27" r:id="rId27"/>
+    <sheet name="work4" sheetId="28" r:id="rId28"/>
+    <sheet name="work1" sheetId="29" r:id="rId29"/>
+    <sheet name="work2" sheetId="30" r:id="rId30"/>
+    <sheet name="work3" sheetId="31" r:id="rId31"/>
+    <sheet name="work4" sheetId="32" r:id="rId32"/>
+    <sheet name="work1" sheetId="33" r:id="rId33"/>
+    <sheet name="work2" sheetId="34" r:id="rId34"/>
+    <sheet name="work3" sheetId="35" r:id="rId35"/>
+    <sheet name="work4" sheetId="36" r:id="rId36"/>
+    <sheet name="work1" sheetId="37" r:id="rId37"/>
+    <sheet name="work2" sheetId="38" r:id="rId38"/>
+    <sheet name="work3" sheetId="39" r:id="rId39"/>
+    <sheet name="work4" sheetId="40" r:id="rId40"/>
   </sheets>
 </workbook>
 </file>
@@ -403,6 +439,316 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B3"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>a</v>
+      </c>
+      <c r="B1" t="str">
+        <v>b</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>TRUE</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B3"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>a</v>
+      </c>
+      <c r="B1" t="str">
+        <v>b</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>TRUE</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B3"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>a</v>
+      </c>
+      <c r="B1" t="str">
+        <v>b</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>TRUE</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B3"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>a</v>
+      </c>
+      <c r="B1" t="str">
+        <v>b</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>TRUE</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B3"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>a</v>
+      </c>
+      <c r="B1" t="str">
+        <v>b</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>TRUE</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B3"/>
@@ -435,6 +781,316 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B3"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>a</v>
+      </c>
+      <c r="B1" t="str">
+        <v>b</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>TRUE</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B3"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>a</v>
+      </c>
+      <c r="B1" t="str">
+        <v>b</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>TRUE</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B3"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>a</v>
+      </c>
+      <c r="B1" t="str">
+        <v>b</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>TRUE</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B3"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>a</v>
+      </c>
+      <c r="B1" t="str">
+        <v>b</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>TRUE</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B3"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>a</v>
+      </c>
+      <c r="B1" t="str">
+        <v>b</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>TRUE</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
@@ -465,6 +1121,316 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B3"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>a</v>
+      </c>
+      <c r="B1" t="str">
+        <v>b</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>TRUE</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B3"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>a</v>
+      </c>
+      <c r="B1" t="str">
+        <v>b</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>TRUE</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B3"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>a</v>
+      </c>
+      <c r="B1" t="str">
+        <v>b</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>TRUE</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B3"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>a</v>
+      </c>
+      <c r="B1" t="str">
+        <v>b</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>TRUE</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B3"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>a</v>
+      </c>
+      <c r="B1" t="str">
+        <v>b</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>TRUE</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B3"/>
@@ -495,4 +1461,190 @@
     </row>
   </sheetData>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B3"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>a</v>
+      </c>
+      <c r="B1" t="str">
+        <v>b</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>TRUE</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B3"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>a</v>
+      </c>
+      <c r="B1" t="str">
+        <v>b</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>TRUE</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B3"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>a</v>
+      </c>
+      <c r="B1" t="str">
+        <v>b</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>TRUE</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
 </file>